--- a/0056_nav.xlsx
+++ b/0056_nav.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\python\CCclub\nw\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -383,10 +383,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B239"/>
+  <dimension ref="A1:B240"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:D1048576"/>
+      <selection activeCell="E167" sqref="E167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1724,471 +1724,471 @@
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
-        <v>45049</v>
+        <v>45050</v>
       </c>
       <c r="B167">
-        <v>28.33</v>
+        <v>28.44</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
-        <v>45048</v>
+        <v>45049</v>
       </c>
       <c r="B168">
-        <v>28.41</v>
+        <v>28.33</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
-        <v>45044</v>
+        <v>45048</v>
       </c>
       <c r="B169">
-        <v>28.2</v>
+        <v>28.41</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
-        <v>45043</v>
+        <v>45044</v>
       </c>
       <c r="B170">
-        <v>28</v>
+        <v>28.2</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
-        <v>45042</v>
+        <v>45043</v>
       </c>
       <c r="B171">
-        <v>27.79</v>
+        <v>28</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
-        <v>45041</v>
+        <v>45042</v>
       </c>
       <c r="B172">
-        <v>27.7</v>
+        <v>27.79</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
-        <v>45040</v>
+        <v>45041</v>
       </c>
       <c r="B173">
-        <v>28.22</v>
+        <v>27.7</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
-        <v>45037</v>
+        <v>45040</v>
       </c>
       <c r="B174">
-        <v>28.12</v>
+        <v>28.22</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
-        <v>45036</v>
+        <v>45037</v>
       </c>
       <c r="B175">
-        <v>28.35</v>
+        <v>28.12</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
-        <v>45035</v>
+        <v>45036</v>
       </c>
       <c r="B176">
-        <v>28.49</v>
+        <v>28.35</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
-        <v>45034</v>
+        <v>45035</v>
       </c>
       <c r="B177">
-        <v>28.61</v>
+        <v>28.49</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
-        <v>45033</v>
+        <v>45034</v>
       </c>
       <c r="B178">
-        <v>28.81</v>
+        <v>28.61</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
-        <v>45030</v>
+        <v>45033</v>
       </c>
       <c r="B179">
-        <v>28.77</v>
+        <v>28.81</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
-        <v>45029</v>
+        <v>45030</v>
       </c>
       <c r="B180">
-        <v>28.64</v>
+        <v>28.77</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
-        <v>45028</v>
+        <v>45029</v>
       </c>
       <c r="B181">
-        <v>28.87</v>
+        <v>28.64</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
-        <v>45027</v>
+        <v>45028</v>
       </c>
       <c r="B182">
-        <v>28.78</v>
+        <v>28.87</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
-        <v>45026</v>
+        <v>45027</v>
       </c>
       <c r="B183">
-        <v>28.57</v>
+        <v>28.78</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
-        <v>45023</v>
+        <v>45026</v>
       </c>
       <c r="B184">
-        <v>28.45</v>
+        <v>28.57</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
-        <v>45022</v>
+        <v>45023</v>
       </c>
       <c r="B185">
-        <v>28.5</v>
+        <v>28.45</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
-        <v>45016</v>
+        <v>45022</v>
       </c>
       <c r="B186">
-        <v>28.51</v>
+        <v>28.5</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
-        <v>45015</v>
+        <v>45016</v>
       </c>
       <c r="B187">
-        <v>28.41</v>
+        <v>28.51</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
-        <v>45014</v>
+        <v>45015</v>
       </c>
       <c r="B188">
-        <v>28.2</v>
+        <v>28.41</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
-        <v>45013</v>
+        <v>45014</v>
       </c>
       <c r="B189">
-        <v>28.11</v>
+        <v>28.2</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A190" s="1">
-        <v>45012</v>
+        <v>45013</v>
       </c>
       <c r="B190">
-        <v>28.36</v>
+        <v>28.11</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A191" s="1">
-        <v>45009</v>
+        <v>45012</v>
       </c>
       <c r="B191">
-        <v>28.34</v>
+        <v>28.36</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192" s="1">
-        <v>45008</v>
+        <v>45009</v>
       </c>
       <c r="B192">
-        <v>28.24</v>
+        <v>28.34</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193" s="1">
-        <v>45007</v>
+        <v>45008</v>
       </c>
       <c r="B193">
-        <v>28.13</v>
+        <v>28.24</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194" s="1">
-        <v>45006</v>
+        <v>45007</v>
       </c>
       <c r="B194">
-        <v>27.83</v>
+        <v>28.13</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
-        <v>45005</v>
+        <v>45006</v>
       </c>
       <c r="B195">
-        <v>27.68</v>
+        <v>27.83</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196" s="1">
-        <v>45002</v>
+        <v>45005</v>
       </c>
       <c r="B196">
-        <v>27.75</v>
+        <v>27.68</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197" s="1">
-        <v>45001</v>
+        <v>45002</v>
       </c>
       <c r="B197">
-        <v>27.43</v>
+        <v>27.75</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198" s="1">
-        <v>45000</v>
+        <v>45001</v>
       </c>
       <c r="B198">
-        <v>27.6</v>
+        <v>27.43</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199" s="1">
-        <v>44999</v>
+        <v>45000</v>
       </c>
       <c r="B199">
-        <v>27.61</v>
+        <v>27.6</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200" s="1">
-        <v>44998</v>
+        <v>44999</v>
       </c>
       <c r="B200">
-        <v>27.93</v>
+        <v>27.61</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A201" s="1">
-        <v>44995</v>
+        <v>44998</v>
       </c>
       <c r="B201">
-        <v>27.84</v>
+        <v>27.93</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A202" s="1">
-        <v>44994</v>
+        <v>44995</v>
       </c>
       <c r="B202">
-        <v>28.15</v>
+        <v>27.84</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A203" s="1">
-        <v>44993</v>
+        <v>44994</v>
       </c>
       <c r="B203">
-        <v>28.29</v>
+        <v>28.15</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A204" s="1">
-        <v>44992</v>
+        <v>44993</v>
       </c>
       <c r="B204">
-        <v>28.4</v>
+        <v>28.29</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A205" s="1">
-        <v>44991</v>
+        <v>44992</v>
       </c>
       <c r="B205">
-        <v>28.24</v>
+        <v>28.4</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A206" s="1">
-        <v>44988</v>
+        <v>44991</v>
       </c>
       <c r="B206">
-        <v>27.98</v>
+        <v>28.24</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A207" s="1">
-        <v>44987</v>
+        <v>44988</v>
       </c>
       <c r="B207">
-        <v>27.8</v>
+        <v>27.98</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A208" s="1">
-        <v>44986</v>
+        <v>44987</v>
       </c>
       <c r="B208">
-        <v>27.64</v>
+        <v>27.8</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A209" s="1">
-        <v>44981</v>
+        <v>44986</v>
       </c>
       <c r="B209">
-        <v>27.58</v>
+        <v>27.64</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A210" s="1">
-        <v>44980</v>
+        <v>44981</v>
       </c>
       <c r="B210">
-        <v>27.66</v>
+        <v>27.58</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A211" s="1">
-        <v>44979</v>
+        <v>44980</v>
       </c>
       <c r="B211">
-        <v>27.33</v>
+        <v>27.66</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A212" s="1">
-        <v>44978</v>
+        <v>44979</v>
       </c>
       <c r="B212">
-        <v>27.5</v>
+        <v>27.33</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A213" s="1">
-        <v>44977</v>
+        <v>44978</v>
       </c>
       <c r="B213">
-        <v>27.37</v>
+        <v>27.5</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A214" s="1">
-        <v>44974</v>
+        <v>44977</v>
       </c>
       <c r="B214">
-        <v>27.2</v>
+        <v>27.37</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A215" s="1">
-        <v>44973</v>
+        <v>44974</v>
       </c>
       <c r="B215">
-        <v>27.25</v>
+        <v>27.2</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A216" s="1">
-        <v>44972</v>
+        <v>44973</v>
       </c>
       <c r="B216">
-        <v>27.04</v>
+        <v>27.25</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A217" s="1">
-        <v>44971</v>
+        <v>44972</v>
       </c>
       <c r="B217">
-        <v>27.16</v>
+        <v>27.04</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A218" s="1">
-        <v>44970</v>
+        <v>44971</v>
       </c>
       <c r="B218">
-        <v>26.92</v>
+        <v>27.16</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A219" s="1">
-        <v>44967</v>
+        <v>44970</v>
       </c>
       <c r="B219">
-        <v>26.95</v>
+        <v>26.92</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A220" s="1">
-        <v>44966</v>
+        <v>44967</v>
       </c>
       <c r="B220">
-        <v>27.14</v>
+        <v>26.95</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A221" s="1">
-        <v>44965</v>
+        <v>44966</v>
       </c>
       <c r="B221">
-        <v>27.2</v>
+        <v>27.14</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A222" s="1">
-        <v>44964</v>
+        <v>44965</v>
       </c>
       <c r="B222">
-        <v>26.96</v>
+        <v>27.2</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A223" s="1">
-        <v>44963</v>
+        <v>44964</v>
       </c>
       <c r="B223">
-        <v>26.81</v>
+        <v>26.96</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A224" s="1">
-        <v>44960</v>
+        <v>44963</v>
       </c>
       <c r="B224">
-        <v>27.06</v>
+        <v>26.81</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A225" s="1">
-        <v>44959</v>
+        <v>44960</v>
       </c>
       <c r="B225">
         <v>27.06</v>
@@ -2196,113 +2196,121 @@
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A226" s="1">
-        <v>44958</v>
+        <v>44959</v>
       </c>
       <c r="B226">
-        <v>26.76</v>
+        <v>27.06</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A227" s="1">
-        <v>44957</v>
+        <v>44958</v>
       </c>
       <c r="B227">
-        <v>26.5</v>
+        <v>26.76</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A228" s="1">
-        <v>44956</v>
+        <v>44957</v>
       </c>
       <c r="B228">
-        <v>26.66</v>
+        <v>26.5</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A229" s="1">
-        <v>44943</v>
+        <v>44956</v>
       </c>
       <c r="B229">
-        <v>26.11</v>
+        <v>26.66</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A230" s="1">
-        <v>44942</v>
+        <v>44943</v>
       </c>
       <c r="B230">
-        <v>26</v>
+        <v>26.11</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A231" s="1">
-        <v>44939</v>
+        <v>44942</v>
       </c>
       <c r="B231">
-        <v>25.96</v>
+        <v>26</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A232" s="1">
-        <v>44938</v>
+        <v>44939</v>
       </c>
       <c r="B232">
-        <v>26</v>
+        <v>25.96</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A233" s="1">
-        <v>44937</v>
+        <v>44938</v>
       </c>
       <c r="B233">
-        <v>26.1</v>
+        <v>26</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A234" s="1">
-        <v>44936</v>
+        <v>44937</v>
       </c>
       <c r="B234">
-        <v>26.14</v>
+        <v>26.1</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A235" s="1">
-        <v>44935</v>
+        <v>44936</v>
       </c>
       <c r="B235">
-        <v>26.08</v>
+        <v>26.14</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A236" s="1">
-        <v>44932</v>
+        <v>44935</v>
       </c>
       <c r="B236">
-        <v>25.68</v>
+        <v>26.08</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A237" s="1">
-        <v>44931</v>
+        <v>44932</v>
       </c>
       <c r="B237">
-        <v>25.42</v>
+        <v>25.68</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A238" s="1">
-        <v>44930</v>
+        <v>44931</v>
       </c>
       <c r="B238">
-        <v>25.38</v>
+        <v>25.42</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A239" s="1">
+        <v>44930</v>
+      </c>
+      <c r="B239">
+        <v>25.38</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A240" s="1">
         <v>44929</v>
       </c>
-      <c r="B239">
+      <c r="B240">
         <v>25.5</v>
       </c>
     </row>

--- a/0056_nav.xlsx
+++ b/0056_nav.xlsx
@@ -1,22 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\python\CCclub\nw\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8484"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
+    <sheet r:id="rId2" sheetId="2" name="Sheet2"/>
+    <sheet r:id="rId3" sheetId="3" name="Sheet3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -32,22 +27,21 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <charset val="136"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="新細明體"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <charset val="136"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -58,7 +52,14 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left/>
       <right/>
@@ -68,43 +69,51 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="7">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-  </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -139,74 +148,74 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -230,54 +239,53 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
                 <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
+                <a:tint val="51000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
+                <a:tint val="15000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
+                <a:tint val="94000"/>
                 <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
+              <a:shade val="9500"/>
               <a:satMod val="105000"/>
             </a:schemeClr>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -287,7 +295,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -296,7 +304,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -305,7 +313,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -313,10 +321,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
+              <a:rot rev="0" lon="0" lat="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -345,7 +353,7 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
+                <a:tint val="20000"/>
                 <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
@@ -358,13 +366,12 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
                 <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
+                <a:tint val="80000"/>
                 <a:satMod val="200000"/>
               </a:schemeClr>
             </a:gs>
@@ -383,1965 +390,1970 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
   <dimension ref="A1:B240"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E167" sqref="E167"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.77734375" customWidth="1"/>
+    <col min="1" max="1" style="5" width="10.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
       <c r="A2" s="1">
         <v>45289</v>
       </c>
-      <c r="B2">
-        <v>37.520000000000003</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B2" s="3">
+        <v>37.52</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="1">
         <v>45288</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="3">
         <v>37.43</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="1">
         <v>45287</v>
       </c>
-      <c r="B4">
-        <v>37.520000000000003</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B4" s="3">
+        <v>37.52</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
       <c r="A5" s="1">
         <v>45286</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="3">
         <v>37.18</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
       <c r="A6" s="1">
         <v>45285</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="3">
         <v>36.78</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
       <c r="A7" s="1">
         <v>45282</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="3">
         <v>36.5</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
       <c r="A8" s="1">
         <v>45281</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="3">
         <v>36.42</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
       <c r="A9" s="1">
         <v>45280</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="3">
         <v>36.56</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
       <c r="A10" s="1">
         <v>45279</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="3">
         <v>36.17</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
       <c r="A11" s="1">
         <v>45278</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="3">
         <v>36.39</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
       <c r="A12" s="1">
         <v>45275</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="3">
         <v>36.35</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
       <c r="A13" s="1">
         <v>45274</v>
       </c>
-      <c r="B13">
-        <v>36.700000000000003</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B13" s="3">
+        <v>36.7</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
       <c r="A14" s="1">
         <v>45273</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="3">
         <v>36.19</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
       <c r="A15" s="1">
         <v>45272</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="3">
         <v>35.72</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
       <c r="A16" s="1">
         <v>45271</v>
       </c>
-      <c r="B16">
-        <v>35.619999999999997</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B16" s="3">
+        <v>35.62</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
       <c r="A17" s="1">
         <v>45268</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="3">
         <v>35.58</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
       <c r="A18" s="1">
         <v>45267</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="3">
         <v>35.36</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
       <c r="A19" s="1">
         <v>45266</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="3">
         <v>35.43</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
       <c r="A20" s="1">
         <v>45265</v>
       </c>
-      <c r="B20">
-        <v>35.130000000000003</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B20" s="3">
+        <v>35.13</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
       <c r="A21" s="1">
         <v>45264</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="3">
         <v>35.31</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
       <c r="A22" s="1">
         <v>45261</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="3">
         <v>35.25</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
       <c r="A23" s="1">
         <v>45260</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="3">
         <v>35.25</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
       <c r="A24" s="1">
         <v>45259</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="3">
         <v>35.19</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
       <c r="A25" s="1">
         <v>45258</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="3">
         <v>34.93</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
       <c r="A26" s="1">
         <v>45257</v>
       </c>
-      <c r="B26">
-        <v>34.700000000000003</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B26" s="3">
+        <v>34.7</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
       <c r="A27" s="1">
         <v>45254</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="3">
         <v>34.96</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
       <c r="A28" s="1">
         <v>45253</v>
       </c>
-      <c r="B28">
-        <v>34.950000000000003</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B28" s="3">
+        <v>34.95</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
       <c r="A29" s="1">
         <v>45252</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="3">
         <v>35.06</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
       <c r="A30" s="1">
         <v>45251</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="3">
         <v>35.42</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
       <c r="A31" s="1">
         <v>45250</v>
       </c>
-      <c r="B31">
-        <v>34.979999999999997</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B31" s="3">
+        <v>34.98</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
       <c r="A32" s="1">
         <v>45247</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="3">
         <v>34.94</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
       <c r="A33" s="1">
         <v>45246</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="3">
         <v>34.86</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
       <c r="A34" s="1">
         <v>45245</v>
       </c>
-      <c r="B34">
-        <v>34.909999999999997</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B34" s="3">
+        <v>34.91</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
       <c r="A35" s="1">
         <v>45244</v>
       </c>
-      <c r="B35">
-        <v>34.799999999999997</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B35" s="3">
+        <v>34.8</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
       <c r="A36" s="1">
         <v>45243</v>
       </c>
-      <c r="B36">
-        <v>34.590000000000003</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B36" s="3">
+        <v>34.59</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
       <c r="A37" s="1">
         <v>45240</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="3">
         <v>34.51</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
       <c r="A38" s="1">
         <v>45239</v>
       </c>
-      <c r="B38">
-        <v>34.659999999999997</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B38" s="3">
+        <v>34.66</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
       <c r="A39" s="1">
         <v>45238</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="3">
         <v>34.6</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
       <c r="A40" s="1">
         <v>45237</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="3">
         <v>34.32</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
       <c r="A41" s="1">
         <v>45236</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="3">
         <v>34.26</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
       <c r="A42" s="1">
         <v>45233</v>
       </c>
-      <c r="B42">
-        <v>33.700000000000003</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B42" s="3">
+        <v>33.7</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
       <c r="A43" s="1">
         <v>45232</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="3">
         <v>33.56</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
       <c r="A44" s="1">
         <v>45231</v>
       </c>
-      <c r="B44">
+      <c r="B44" s="3">
         <v>32.82</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
       <c r="A45" s="1">
         <v>45230</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="3">
         <v>32.61</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
       <c r="A46" s="1">
         <v>45229</v>
       </c>
-      <c r="B46">
+      <c r="B46" s="3">
         <v>33.14</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
       <c r="A47" s="1">
         <v>45226</v>
       </c>
-      <c r="B47">
+      <c r="B47" s="3">
         <v>33.01</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
       <c r="A48" s="1">
         <v>45225</v>
       </c>
-      <c r="B48">
+      <c r="B48" s="3">
         <v>32.89</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
       <c r="A49" s="1">
         <v>45224</v>
       </c>
-      <c r="B49">
-        <v>33.479999999999997</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B49" s="3">
+        <v>33.48</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
       <c r="A50" s="1">
         <v>45223</v>
       </c>
-      <c r="B50">
+      <c r="B50" s="3">
         <v>33.4</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
       <c r="A51" s="1">
         <v>45222</v>
       </c>
-      <c r="B51">
+      <c r="B51" s="3">
         <v>32.93</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
       <c r="A52" s="1">
         <v>45219</v>
       </c>
-      <c r="B52">
+      <c r="B52" s="3">
         <v>33.29</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75">
       <c r="A53" s="1">
         <v>45218</v>
       </c>
-      <c r="B53">
-        <v>33.479999999999997</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B53" s="3">
+        <v>33.48</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75">
       <c r="A54" s="1">
         <v>45217</v>
       </c>
-      <c r="B54">
+      <c r="B54" s="3">
         <v>34.76</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75">
       <c r="A55" s="1">
         <v>45216</v>
       </c>
-      <c r="B55">
-        <v>35.159999999999997</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B55" s="3">
+        <v>35.16</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75">
       <c r="A56" s="1">
         <v>45215</v>
       </c>
-      <c r="B56">
-        <v>35.369999999999997</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B56" s="3">
+        <v>35.37</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75">
       <c r="A57" s="1">
         <v>45212</v>
       </c>
-      <c r="B57">
+      <c r="B57" s="3">
         <v>35.65</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75">
       <c r="A58" s="1">
         <v>45211</v>
       </c>
-      <c r="B58">
-        <v>35.979999999999997</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B58" s="3">
+        <v>35.98</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18.75">
       <c r="A59" s="1">
         <v>45210</v>
       </c>
-      <c r="B59">
+      <c r="B59" s="3">
         <v>35.65</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75">
       <c r="A60" s="1">
         <v>45205</v>
       </c>
-      <c r="B60">
-        <v>35.700000000000003</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B60" s="3">
+        <v>35.7</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18.75">
       <c r="A61" s="1">
         <v>45204</v>
       </c>
-      <c r="B61">
-        <v>35.619999999999997</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B61" s="3">
+        <v>35.62</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18.75">
       <c r="A62" s="1">
         <v>45203</v>
       </c>
-      <c r="B62">
+      <c r="B62" s="3">
         <v>35.28</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18.75">
       <c r="A63" s="1">
         <v>45202</v>
       </c>
-      <c r="B63">
-        <v>35.520000000000003</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B63" s="3">
+        <v>35.52</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18.75">
       <c r="A64" s="1">
         <v>45201</v>
       </c>
-      <c r="B64">
-        <v>35.770000000000003</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B64" s="3">
+        <v>35.77</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="18.75">
       <c r="A65" s="1">
         <v>45197</v>
       </c>
-      <c r="B65">
-        <v>35.049999999999997</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B65" s="3">
+        <v>35.05</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18.75">
       <c r="A66" s="1">
         <v>45196</v>
       </c>
-      <c r="B66">
+      <c r="B66" s="3">
         <v>34.9</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18.75">
       <c r="A67" s="1">
         <v>45195</v>
       </c>
-      <c r="B67">
+      <c r="B67" s="3">
         <v>34.69</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18.75">
       <c r="A68" s="1">
         <v>45194</v>
       </c>
-      <c r="B68">
-        <v>35.020000000000003</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B68" s="3">
+        <v>35.02</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18.75">
       <c r="A69" s="1">
         <v>45191</v>
       </c>
-      <c r="B69">
-        <v>34.880000000000003</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B69" s="3">
+        <v>34.88</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="18.75">
       <c r="A70" s="1">
         <v>45190</v>
       </c>
-      <c r="B70">
+      <c r="B70" s="3">
         <v>34.61</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="18.75">
       <c r="A71" s="1">
         <v>45189</v>
       </c>
-      <c r="B71">
-        <v>34.950000000000003</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B71" s="3">
+        <v>34.95</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="18.75">
       <c r="A72" s="1">
         <v>45188</v>
       </c>
-      <c r="B72">
+      <c r="B72" s="3">
         <v>35.03</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="18.75">
       <c r="A73" s="1">
         <v>45187</v>
       </c>
-      <c r="B73">
+      <c r="B73" s="3">
         <v>35.22</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="18.75">
       <c r="A74" s="1">
         <v>45184</v>
       </c>
-      <c r="B74">
+      <c r="B74" s="3">
         <v>35.71</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="18.75">
       <c r="A75" s="1">
         <v>45183</v>
       </c>
-      <c r="B75">
-        <v>35.409999999999997</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B75" s="3">
+        <v>35.41</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="18.75">
       <c r="A76" s="1">
         <v>45182</v>
       </c>
-      <c r="B76">
+      <c r="B76" s="3">
         <v>34.85</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="18.75">
       <c r="A77" s="1">
         <v>45181</v>
       </c>
-      <c r="B77">
-        <v>34.799999999999997</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B77" s="3">
+        <v>34.8</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="18.75">
       <c r="A78" s="1">
         <v>45180</v>
       </c>
-      <c r="B78">
+      <c r="B78" s="3">
         <v>34.75</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="18.75">
       <c r="A79" s="1">
         <v>45177</v>
       </c>
-      <c r="B79">
+      <c r="B79" s="3">
         <v>35.4</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="18.75">
       <c r="A80" s="1">
         <v>45176</v>
       </c>
-      <c r="B80">
-        <v>35.520000000000003</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B80" s="3">
+        <v>35.52</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="18.75">
       <c r="A81" s="1">
         <v>45175</v>
       </c>
-      <c r="B81">
-        <v>35.700000000000003</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B81" s="3">
+        <v>35.7</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="18.75">
       <c r="A82" s="1">
         <v>45174</v>
       </c>
-      <c r="B82">
+      <c r="B82" s="3">
         <v>35.61</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="18.75">
       <c r="A83" s="1">
         <v>45173</v>
       </c>
-      <c r="B83">
-        <v>35.369999999999997</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B83" s="3">
+        <v>35.37</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="18.75">
       <c r="A84" s="1">
         <v>45170</v>
       </c>
-      <c r="B84">
+      <c r="B84" s="3">
         <v>35.07</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="18.75">
       <c r="A85" s="1">
         <v>45169</v>
       </c>
-      <c r="B85">
-        <v>35.380000000000003</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B85" s="3">
+        <v>35.38</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="18.75">
       <c r="A86" s="1">
         <v>45168</v>
       </c>
-      <c r="B86">
+      <c r="B86" s="3">
         <v>35.43</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="18.75">
       <c r="A87" s="1">
         <v>45167</v>
       </c>
-      <c r="B87">
+      <c r="B87" s="3">
         <v>35.22</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="18.75">
       <c r="A88" s="1">
         <v>45166</v>
       </c>
-      <c r="B88">
-        <v>34.979999999999997</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B88" s="3">
+        <v>34.98</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="18.75">
       <c r="A89" s="1">
         <v>45163</v>
       </c>
-      <c r="B89">
+      <c r="B89" s="3">
         <v>35.14</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="18.75">
       <c r="A90" s="1">
         <v>45162</v>
       </c>
-      <c r="B90">
+      <c r="B90" s="3">
         <v>35.9</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="18.75">
       <c r="A91" s="1">
         <v>45161</v>
       </c>
-      <c r="B91">
-        <v>35.590000000000003</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B91" s="3">
+        <v>35.59</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="18.75">
       <c r="A92" s="1">
         <v>45160</v>
       </c>
-      <c r="B92">
-        <v>35.200000000000003</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B92" s="3">
+        <v>35.2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="18.75">
       <c r="A93" s="1">
         <v>45159</v>
       </c>
-      <c r="B93">
-        <v>34.880000000000003</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B93" s="3">
+        <v>34.88</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="18.75">
       <c r="A94" s="1">
         <v>45156</v>
       </c>
-      <c r="B94">
-        <v>34.869999999999997</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B94" s="3">
+        <v>34.87</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="18.75">
       <c r="A95" s="1">
         <v>45155</v>
       </c>
-      <c r="B95">
+      <c r="B95" s="3">
         <v>35.47</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="18.75">
       <c r="A96" s="1">
         <v>45154</v>
       </c>
-      <c r="B96">
+      <c r="B96" s="3">
         <v>35.36</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="18.75">
       <c r="A97" s="1">
         <v>45153</v>
       </c>
-      <c r="B97">
+      <c r="B97" s="3">
         <v>34.83</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="18.75">
       <c r="A98" s="1">
         <v>45152</v>
       </c>
-      <c r="B98">
-        <v>34.340000000000003</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B98" s="3">
+        <v>34.34</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="18.75">
       <c r="A99" s="1">
         <v>45149</v>
       </c>
-      <c r="B99">
-        <v>34.619999999999997</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B99" s="3">
+        <v>34.62</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="18.75">
       <c r="A100" s="1">
         <v>45148</v>
       </c>
-      <c r="B100">
+      <c r="B100" s="3">
         <v>34.56</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="18.75">
       <c r="A101" s="1">
         <v>45147</v>
       </c>
-      <c r="B101">
+      <c r="B101" s="3">
         <v>35.53</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="18.75">
       <c r="A102" s="1">
         <v>45146</v>
       </c>
-      <c r="B102">
-        <v>35.770000000000003</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B102" s="3">
+        <v>35.77</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="18.75">
       <c r="A103" s="1">
         <v>45145</v>
       </c>
-      <c r="B103">
-        <v>35.840000000000003</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B103" s="3">
+        <v>35.84</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="18.75">
       <c r="A104" s="1">
         <v>45142</v>
       </c>
-      <c r="B104">
+      <c r="B104" s="3">
         <v>34.86</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="18.75">
       <c r="A105" s="1">
         <v>45140</v>
       </c>
-      <c r="B105">
+      <c r="B105" s="3">
         <v>34.79</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="18.75">
       <c r="A106" s="1">
         <v>45139</v>
       </c>
-      <c r="B106">
+      <c r="B106" s="3">
         <v>35.9</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="18.75">
       <c r="A107" s="1">
         <v>45138</v>
       </c>
-      <c r="B107">
+      <c r="B107" s="3">
         <v>35.92</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="18.75">
       <c r="A108" s="1">
         <v>45135</v>
       </c>
-      <c r="B108">
+      <c r="B108" s="3">
         <v>36.83</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="18.75">
       <c r="A109" s="1">
         <v>45134</v>
       </c>
-      <c r="B109">
+      <c r="B109" s="3">
         <v>36.22</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="18.75">
       <c r="A110" s="1">
         <v>45133</v>
       </c>
-      <c r="B110">
+      <c r="B110" s="3">
         <v>36.17</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="18.75">
       <c r="A111" s="1">
         <v>45132</v>
       </c>
-      <c r="B111">
-        <v>36.159999999999997</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B111" s="3">
+        <v>36.16</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="18.75">
       <c r="A112" s="1">
         <v>45131</v>
       </c>
-      <c r="B112">
-        <v>36.130000000000003</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B112" s="3">
+        <v>36.13</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="18.75">
       <c r="A113" s="1">
         <v>45128</v>
       </c>
-      <c r="B113">
-        <v>35.450000000000003</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B113" s="3">
+        <v>35.45</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="18.75">
       <c r="A114" s="1">
         <v>45127</v>
       </c>
-      <c r="B114">
+      <c r="B114" s="3">
         <v>34.89</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="18.75">
       <c r="A115" s="1">
         <v>45126</v>
       </c>
-      <c r="B115">
+      <c r="B115" s="3">
         <v>34.53</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="18.75">
       <c r="A116" s="1">
         <v>45125</v>
       </c>
-      <c r="B116">
+      <c r="B116" s="3">
         <v>35.29</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="18.75">
       <c r="A117" s="1">
         <v>45124</v>
       </c>
-      <c r="B117">
-        <v>35.979999999999997</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B117" s="3">
+        <v>35.98</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="18.75">
       <c r="A118" s="1">
         <v>45121</v>
       </c>
-      <c r="B118">
-        <v>35.630000000000003</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B118" s="3">
+        <v>35.63</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="18.75">
       <c r="A119" s="1">
         <v>45120</v>
       </c>
-      <c r="B119">
+      <c r="B119" s="3">
         <v>34.93</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="18.75">
       <c r="A120" s="1">
         <v>45119</v>
       </c>
-      <c r="B120">
+      <c r="B120" s="3">
         <v>34.44</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="18.75">
       <c r="A121" s="1">
         <v>45118</v>
       </c>
-      <c r="B121">
-        <v>33.840000000000003</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B121" s="3">
+        <v>33.84</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="122" customHeight="1" ht="18.75">
       <c r="A122" s="1">
         <v>45117</v>
       </c>
-      <c r="B122">
+      <c r="B122" s="3">
         <v>33.07</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="18.75">
       <c r="A123" s="1">
         <v>45114</v>
       </c>
-      <c r="B123">
+      <c r="B123" s="3">
         <v>33.04</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="18.75">
       <c r="A124" s="1">
         <v>45113</v>
       </c>
-      <c r="B124">
-        <v>33.299999999999997</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B124" s="3">
+        <v>33.3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="18.75">
       <c r="A125" s="1">
         <v>45112</v>
       </c>
-      <c r="B125">
+      <c r="B125" s="3">
         <v>33.65</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="18.75">
       <c r="A126" s="1">
         <v>45111</v>
       </c>
-      <c r="B126">
+      <c r="B126" s="3">
         <v>33.85</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="18.75">
       <c r="A127" s="1">
         <v>45110</v>
       </c>
-      <c r="B127">
+      <c r="B127" s="3">
         <v>33.25</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="18.75">
       <c r="A128" s="1">
         <v>45107</v>
       </c>
-      <c r="B128">
+      <c r="B128" s="3">
         <v>32.75</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="129" customHeight="1" ht="18.75">
       <c r="A129" s="1">
         <v>45106</v>
       </c>
-      <c r="B129">
+      <c r="B129" s="3">
         <v>32.64</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="130" customHeight="1" ht="18.75">
       <c r="A130" s="1">
         <v>45105</v>
       </c>
-      <c r="B130">
+      <c r="B130" s="3">
         <v>32.36</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="18.75">
       <c r="A131" s="1">
         <v>45104</v>
       </c>
-      <c r="B131">
-        <v>32.270000000000003</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B131" s="3">
+        <v>32.27</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="132" customHeight="1" ht="18.75">
       <c r="A132" s="1">
         <v>45103</v>
       </c>
-      <c r="B132">
+      <c r="B132" s="3">
         <v>32.76</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="133" customHeight="1" ht="18.75">
       <c r="A133" s="1">
         <v>45098</v>
       </c>
-      <c r="B133">
+      <c r="B133" s="3">
         <v>32.96</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="134" customHeight="1" ht="18.75">
       <c r="A134" s="1">
         <v>45097</v>
       </c>
-      <c r="B134">
-        <v>32.619999999999997</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B134" s="3">
+        <v>32.62</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="135" customHeight="1" ht="18.75">
       <c r="A135" s="1">
         <v>45096</v>
       </c>
-      <c r="B135">
+      <c r="B135" s="3">
         <v>32.76</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="136" customHeight="1" ht="18.75">
       <c r="A136" s="1">
         <v>45093</v>
       </c>
-      <c r="B136">
+      <c r="B136" s="3">
         <v>32.86</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="137" customHeight="1" ht="18.75">
       <c r="A137" s="1">
         <v>45092</v>
       </c>
-      <c r="B137">
+      <c r="B137" s="3">
         <v>32.85</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="138" customHeight="1" ht="18.75">
       <c r="A138" s="1">
         <v>45091</v>
       </c>
-      <c r="B138">
-        <v>32.409999999999997</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B138" s="3">
+        <v>32.41</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="139" customHeight="1" ht="18.75">
       <c r="A139" s="1">
         <v>45090</v>
       </c>
-      <c r="B139">
-        <v>32.299999999999997</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B139" s="3">
+        <v>32.3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="140" customHeight="1" ht="18.75">
       <c r="A140" s="1">
         <v>45089</v>
       </c>
-      <c r="B140">
+      <c r="B140" s="3">
         <v>31.84</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="141" customHeight="1" ht="18.75">
       <c r="A141" s="1">
         <v>45086</v>
       </c>
-      <c r="B141">
+      <c r="B141" s="3">
         <v>31.89</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="142" customHeight="1" ht="18.75">
       <c r="A142" s="1">
         <v>45085</v>
       </c>
-      <c r="B142">
+      <c r="B142" s="3">
         <v>31.29</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="143" customHeight="1" ht="18.75">
       <c r="A143" s="1">
         <v>45084</v>
       </c>
-      <c r="B143">
+      <c r="B143" s="3">
         <v>31.54</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="144" customHeight="1" ht="18.75">
       <c r="A144" s="1">
         <v>45083</v>
       </c>
-      <c r="B144">
+      <c r="B144" s="3">
         <v>31.18</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="145" customHeight="1" ht="18.75">
       <c r="A145" s="1">
         <v>45082</v>
       </c>
-      <c r="B145">
+      <c r="B145" s="3">
         <v>31.15</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="146" customHeight="1" ht="18.75">
       <c r="A146" s="1">
         <v>45079</v>
       </c>
-      <c r="B146">
+      <c r="B146" s="3">
         <v>30.97</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="147" customHeight="1" ht="18.75">
       <c r="A147" s="1">
         <v>45078</v>
       </c>
-      <c r="B147">
+      <c r="B147" s="3">
         <v>30.55</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="148" customHeight="1" ht="18.75">
       <c r="A148" s="1">
         <v>45077</v>
       </c>
-      <c r="B148">
+      <c r="B148" s="3">
         <v>30.61</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="149" customHeight="1" ht="18.75">
       <c r="A149" s="1">
         <v>45076</v>
       </c>
-      <c r="B149">
+      <c r="B149" s="3">
         <v>30.52</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="150" customHeight="1" ht="18.75">
       <c r="A150" s="1">
         <v>45075</v>
       </c>
-      <c r="B150">
+      <c r="B150" s="3">
         <v>30.57</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="151" customHeight="1" ht="18.75">
       <c r="A151" s="1">
         <v>45072</v>
       </c>
-      <c r="B151">
+      <c r="B151" s="3">
         <v>30.19</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="152" customHeight="1" ht="18.75">
       <c r="A152" s="1">
         <v>45071</v>
       </c>
-      <c r="B152">
+      <c r="B152" s="3">
         <v>29.86</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="153" customHeight="1" ht="18.75">
       <c r="A153" s="1">
         <v>45070</v>
       </c>
-      <c r="B153">
+      <c r="B153" s="3">
         <v>29.55</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="154" customHeight="1" ht="18.75">
       <c r="A154" s="1">
         <v>45069</v>
       </c>
-      <c r="B154">
+      <c r="B154" s="3">
         <v>29.47</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="155" customHeight="1" ht="18.75">
       <c r="A155" s="1">
         <v>45068</v>
       </c>
-      <c r="B155">
+      <c r="B155" s="3">
         <v>29.48</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="156" customHeight="1" ht="18.75">
       <c r="A156" s="1">
         <v>45065</v>
       </c>
-      <c r="B156">
+      <c r="B156" s="3">
         <v>29.45</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="157" customHeight="1" ht="18.75">
       <c r="A157" s="1">
         <v>45064</v>
       </c>
-      <c r="B157">
+      <c r="B157" s="3">
         <v>29.16</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="158" customHeight="1" ht="18.75">
       <c r="A158" s="1">
         <v>45063</v>
       </c>
-      <c r="B158">
+      <c r="B158" s="3">
         <v>28.85</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="159" customHeight="1" ht="18.75">
       <c r="A159" s="1">
         <v>45062</v>
       </c>
-      <c r="B159">
+      <c r="B159" s="3">
         <v>28.65</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="160" customHeight="1" ht="18.75">
       <c r="A160" s="1">
         <v>45061</v>
       </c>
-      <c r="B160">
+      <c r="B160" s="3">
         <v>28.35</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="161" customHeight="1" ht="18.75">
       <c r="A161" s="1">
         <v>45058</v>
       </c>
-      <c r="B161">
+      <c r="B161" s="3">
         <v>28.44</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="162" customHeight="1" ht="18.75">
       <c r="A162" s="1">
         <v>45057</v>
       </c>
-      <c r="B162">
+      <c r="B162" s="3">
         <v>28.36</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="163" customHeight="1" ht="18.75">
       <c r="A163" s="1">
         <v>45056</v>
       </c>
-      <c r="B163">
+      <c r="B163" s="3">
         <v>28.56</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="164" customHeight="1" ht="18.75">
       <c r="A164" s="1">
         <v>45055</v>
       </c>
-      <c r="B164">
+      <c r="B164" s="3">
         <v>28.66</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="165" customHeight="1" ht="18.75">
       <c r="A165" s="1">
         <v>45054</v>
       </c>
-      <c r="B165">
+      <c r="B165" s="3">
         <v>28.6</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="166" customHeight="1" ht="18.75">
       <c r="A166" s="1">
         <v>45051</v>
       </c>
-      <c r="B166">
+      <c r="B166" s="3">
         <v>28.46</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="167" customHeight="1" ht="18.75">
       <c r="A167" s="1">
         <v>45050</v>
       </c>
-      <c r="B167">
+      <c r="B167" s="3">
         <v>28.44</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="168" customHeight="1" ht="18.75">
       <c r="A168" s="1">
         <v>45049</v>
       </c>
-      <c r="B168">
+      <c r="B168" s="3">
         <v>28.33</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="169" customHeight="1" ht="18.75">
       <c r="A169" s="1">
         <v>45048</v>
       </c>
-      <c r="B169">
+      <c r="B169" s="3">
         <v>28.41</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="170" customHeight="1" ht="18.75">
       <c r="A170" s="1">
         <v>45044</v>
       </c>
-      <c r="B170">
+      <c r="B170" s="3">
         <v>28.2</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="171" customHeight="1" ht="18.75">
       <c r="A171" s="1">
         <v>45043</v>
       </c>
-      <c r="B171">
+      <c r="B171" s="4">
         <v>28</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="172" customHeight="1" ht="18.75">
       <c r="A172" s="1">
         <v>45042</v>
       </c>
-      <c r="B172">
+      <c r="B172" s="3">
         <v>27.79</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="173" customHeight="1" ht="18.75">
       <c r="A173" s="1">
         <v>45041</v>
       </c>
-      <c r="B173">
+      <c r="B173" s="3">
         <v>27.7</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="174" customHeight="1" ht="18.75">
       <c r="A174" s="1">
         <v>45040</v>
       </c>
-      <c r="B174">
+      <c r="B174" s="3">
         <v>28.22</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="175" customHeight="1" ht="18.75">
       <c r="A175" s="1">
         <v>45037</v>
       </c>
-      <c r="B175">
+      <c r="B175" s="3">
         <v>28.12</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="176" customHeight="1" ht="18.75">
       <c r="A176" s="1">
         <v>45036</v>
       </c>
-      <c r="B176">
+      <c r="B176" s="3">
         <v>28.35</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="177" customHeight="1" ht="18.75">
       <c r="A177" s="1">
         <v>45035</v>
       </c>
-      <c r="B177">
+      <c r="B177" s="3">
         <v>28.49</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="178" customHeight="1" ht="18.75">
       <c r="A178" s="1">
         <v>45034</v>
       </c>
-      <c r="B178">
+      <c r="B178" s="3">
         <v>28.61</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="179" customHeight="1" ht="18.75">
       <c r="A179" s="1">
         <v>45033</v>
       </c>
-      <c r="B179">
+      <c r="B179" s="3">
         <v>28.81</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="180" customHeight="1" ht="18.75">
       <c r="A180" s="1">
         <v>45030</v>
       </c>
-      <c r="B180">
+      <c r="B180" s="3">
         <v>28.77</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="181" customHeight="1" ht="18.75">
       <c r="A181" s="1">
         <v>45029</v>
       </c>
-      <c r="B181">
+      <c r="B181" s="3">
         <v>28.64</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="182" customHeight="1" ht="18.75">
       <c r="A182" s="1">
         <v>45028</v>
       </c>
-      <c r="B182">
+      <c r="B182" s="3">
         <v>28.87</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="183" customHeight="1" ht="18.75">
       <c r="A183" s="1">
         <v>45027</v>
       </c>
-      <c r="B183">
+      <c r="B183" s="3">
         <v>28.78</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="184" customHeight="1" ht="18.75">
       <c r="A184" s="1">
         <v>45026</v>
       </c>
-      <c r="B184">
+      <c r="B184" s="3">
         <v>28.57</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="185" customHeight="1" ht="18.75">
       <c r="A185" s="1">
         <v>45023</v>
       </c>
-      <c r="B185">
+      <c r="B185" s="3">
         <v>28.45</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="186" customHeight="1" ht="18.75">
       <c r="A186" s="1">
         <v>45022</v>
       </c>
-      <c r="B186">
+      <c r="B186" s="3">
         <v>28.5</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="187" customHeight="1" ht="18.75">
       <c r="A187" s="1">
         <v>45016</v>
       </c>
-      <c r="B187">
+      <c r="B187" s="3">
         <v>28.51</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="188" customHeight="1" ht="18.75">
       <c r="A188" s="1">
         <v>45015</v>
       </c>
-      <c r="B188">
+      <c r="B188" s="3">
         <v>28.41</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="189" customHeight="1" ht="18.75">
       <c r="A189" s="1">
         <v>45014</v>
       </c>
-      <c r="B189">
+      <c r="B189" s="3">
         <v>28.2</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="190" customHeight="1" ht="18.75">
       <c r="A190" s="1">
         <v>45013</v>
       </c>
-      <c r="B190">
+      <c r="B190" s="3">
         <v>28.11</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="191" customHeight="1" ht="18.75">
       <c r="A191" s="1">
         <v>45012</v>
       </c>
-      <c r="B191">
+      <c r="B191" s="3">
         <v>28.36</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="192" customHeight="1" ht="18.75">
       <c r="A192" s="1">
         <v>45009</v>
       </c>
-      <c r="B192">
+      <c r="B192" s="3">
         <v>28.34</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="193" customHeight="1" ht="18.75">
       <c r="A193" s="1">
         <v>45008</v>
       </c>
-      <c r="B193">
+      <c r="B193" s="3">
         <v>28.24</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="194" customHeight="1" ht="18.75">
       <c r="A194" s="1">
         <v>45007</v>
       </c>
-      <c r="B194">
+      <c r="B194" s="3">
         <v>28.13</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="195" customHeight="1" ht="18.75">
       <c r="A195" s="1">
         <v>45006</v>
       </c>
-      <c r="B195">
+      <c r="B195" s="3">
         <v>27.83</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="196" customHeight="1" ht="18.75">
       <c r="A196" s="1">
         <v>45005</v>
       </c>
-      <c r="B196">
+      <c r="B196" s="3">
         <v>27.68</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="197" customHeight="1" ht="18.75">
       <c r="A197" s="1">
         <v>45002</v>
       </c>
-      <c r="B197">
+      <c r="B197" s="3">
         <v>27.75</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="198" customHeight="1" ht="18.75">
       <c r="A198" s="1">
         <v>45001</v>
       </c>
-      <c r="B198">
+      <c r="B198" s="3">
         <v>27.43</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="199" customHeight="1" ht="18.75">
       <c r="A199" s="1">
         <v>45000</v>
       </c>
-      <c r="B199">
+      <c r="B199" s="3">
         <v>27.6</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="200" customHeight="1" ht="18.75">
       <c r="A200" s="1">
         <v>44999</v>
       </c>
-      <c r="B200">
+      <c r="B200" s="3">
         <v>27.61</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="201" customHeight="1" ht="18.75">
       <c r="A201" s="1">
         <v>44998</v>
       </c>
-      <c r="B201">
+      <c r="B201" s="3">
         <v>27.93</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="202" customHeight="1" ht="18.75">
       <c r="A202" s="1">
         <v>44995</v>
       </c>
-      <c r="B202">
+      <c r="B202" s="3">
         <v>27.84</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="203" customHeight="1" ht="18.75">
       <c r="A203" s="1">
         <v>44994</v>
       </c>
-      <c r="B203">
+      <c r="B203" s="3">
         <v>28.15</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="204" customHeight="1" ht="18.75">
       <c r="A204" s="1">
         <v>44993</v>
       </c>
-      <c r="B204">
+      <c r="B204" s="3">
         <v>28.29</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="205" customHeight="1" ht="18.75">
       <c r="A205" s="1">
         <v>44992</v>
       </c>
-      <c r="B205">
+      <c r="B205" s="3">
         <v>28.4</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="206" customHeight="1" ht="18.75">
       <c r="A206" s="1">
         <v>44991</v>
       </c>
-      <c r="B206">
+      <c r="B206" s="3">
         <v>28.24</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="207" customHeight="1" ht="18.75">
       <c r="A207" s="1">
         <v>44988</v>
       </c>
-      <c r="B207">
+      <c r="B207" s="3">
         <v>27.98</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="208" customHeight="1" ht="18.75">
       <c r="A208" s="1">
         <v>44987</v>
       </c>
-      <c r="B208">
+      <c r="B208" s="3">
         <v>27.8</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="209" customHeight="1" ht="18.75">
       <c r="A209" s="1">
         <v>44986</v>
       </c>
-      <c r="B209">
+      <c r="B209" s="3">
         <v>27.64</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="210" customHeight="1" ht="18.75">
       <c r="A210" s="1">
         <v>44981</v>
       </c>
-      <c r="B210">
+      <c r="B210" s="3">
         <v>27.58</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="211" customHeight="1" ht="18.75">
       <c r="A211" s="1">
         <v>44980</v>
       </c>
-      <c r="B211">
+      <c r="B211" s="3">
         <v>27.66</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="212" customHeight="1" ht="18.75">
       <c r="A212" s="1">
         <v>44979</v>
       </c>
-      <c r="B212">
+      <c r="B212" s="3">
         <v>27.33</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="213" customHeight="1" ht="18.75">
       <c r="A213" s="1">
         <v>44978</v>
       </c>
-      <c r="B213">
+      <c r="B213" s="3">
         <v>27.5</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="214" customHeight="1" ht="18.75">
       <c r="A214" s="1">
         <v>44977</v>
       </c>
-      <c r="B214">
+      <c r="B214" s="3">
         <v>27.37</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="215" customHeight="1" ht="18.75">
       <c r="A215" s="1">
         <v>44974</v>
       </c>
-      <c r="B215">
+      <c r="B215" s="3">
         <v>27.2</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="216" customHeight="1" ht="18.75">
       <c r="A216" s="1">
         <v>44973</v>
       </c>
-      <c r="B216">
+      <c r="B216" s="3">
         <v>27.25</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="217" customHeight="1" ht="18.75">
       <c r="A217" s="1">
         <v>44972</v>
       </c>
-      <c r="B217">
+      <c r="B217" s="3">
         <v>27.04</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="218" customHeight="1" ht="18.75">
       <c r="A218" s="1">
         <v>44971</v>
       </c>
-      <c r="B218">
+      <c r="B218" s="3">
         <v>27.16</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="219" customHeight="1" ht="18.75">
       <c r="A219" s="1">
         <v>44970</v>
       </c>
-      <c r="B219">
+      <c r="B219" s="3">
         <v>26.92</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="220" customHeight="1" ht="18.75">
       <c r="A220" s="1">
         <v>44967</v>
       </c>
-      <c r="B220">
+      <c r="B220" s="3">
         <v>26.95</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="221" customHeight="1" ht="18.75">
       <c r="A221" s="1">
         <v>44966</v>
       </c>
-      <c r="B221">
+      <c r="B221" s="3">
         <v>27.14</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="222" customHeight="1" ht="18.75">
       <c r="A222" s="1">
         <v>44965</v>
       </c>
-      <c r="B222">
+      <c r="B222" s="3">
         <v>27.2</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="223" customHeight="1" ht="18.75">
       <c r="A223" s="1">
         <v>44964</v>
       </c>
-      <c r="B223">
+      <c r="B223" s="3">
         <v>26.96</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="224" customHeight="1" ht="18.75">
       <c r="A224" s="1">
         <v>44963</v>
       </c>
-      <c r="B224">
+      <c r="B224" s="3">
         <v>26.81</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="225" customHeight="1" ht="18.75">
       <c r="A225" s="1">
         <v>44960</v>
       </c>
-      <c r="B225">
+      <c r="B225" s="3">
         <v>27.06</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="226" customHeight="1" ht="18.75">
       <c r="A226" s="1">
         <v>44959</v>
       </c>
-      <c r="B226">
+      <c r="B226" s="3">
         <v>27.06</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="227" customHeight="1" ht="18.75">
       <c r="A227" s="1">
         <v>44958</v>
       </c>
-      <c r="B227">
+      <c r="B227" s="3">
         <v>26.76</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="228" customHeight="1" ht="18.75">
       <c r="A228" s="1">
         <v>44957</v>
       </c>
-      <c r="B228">
+      <c r="B228" s="3">
         <v>26.5</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="229" customHeight="1" ht="18.75">
       <c r="A229" s="1">
         <v>44956</v>
       </c>
-      <c r="B229">
+      <c r="B229" s="3">
         <v>26.66</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="230" customHeight="1" ht="18.75">
       <c r="A230" s="1">
         <v>44943</v>
       </c>
-      <c r="B230">
+      <c r="B230" s="3">
         <v>26.11</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="231" customHeight="1" ht="18.75">
       <c r="A231" s="1">
         <v>44942</v>
       </c>
-      <c r="B231">
+      <c r="B231" s="4">
         <v>26</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="232" customHeight="1" ht="18.75">
       <c r="A232" s="1">
         <v>44939</v>
       </c>
-      <c r="B232">
+      <c r="B232" s="3">
         <v>25.96</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="233" customHeight="1" ht="18.75">
       <c r="A233" s="1">
         <v>44938</v>
       </c>
-      <c r="B233">
+      <c r="B233" s="4">
         <v>26</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="234" customHeight="1" ht="18.75">
       <c r="A234" s="1">
         <v>44937</v>
       </c>
-      <c r="B234">
+      <c r="B234" s="3">
         <v>26.1</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="235" customHeight="1" ht="18.75">
       <c r="A235" s="1">
         <v>44936</v>
       </c>
-      <c r="B235">
+      <c r="B235" s="3">
         <v>26.14</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="236" customHeight="1" ht="18.75">
       <c r="A236" s="1">
         <v>44935</v>
       </c>
-      <c r="B236">
+      <c r="B236" s="3">
         <v>26.08</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="237" customHeight="1" ht="18.75">
       <c r="A237" s="1">
         <v>44932</v>
       </c>
-      <c r="B237">
+      <c r="B237" s="3">
         <v>25.68</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="238" customHeight="1" ht="18.75">
       <c r="A238" s="1">
         <v>44931</v>
       </c>
-      <c r="B238">
+      <c r="B238" s="3">
         <v>25.42</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="239" customHeight="1" ht="18.75">
       <c r="A239" s="1">
         <v>44930</v>
       </c>
-      <c r="B239">
+      <c r="B239" s="3">
         <v>25.38</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="240" customHeight="1" ht="18.75">
       <c r="A240" s="1">
         <v>44929</v>
       </c>
-      <c r="B240">
+      <c r="B240" s="3">
         <v>25.5</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>